--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0802_223629" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0805_191123" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L387"/>
+  <dimension ref="A1:L419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18621,6 +18621,1654 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>8</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>4,2,1,1</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>6</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>6,3,7</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>2</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>3</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>4,9,J</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>8</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>1,2,5</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>5</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>5</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>5,4,6</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>2</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>3,9,Q</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>3</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>2</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>4,3,5</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>4</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>3,5,6</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>2</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>4,6,Q</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>4</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>10,J,4</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>4</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>5</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>5,Q,K</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>3,7,Q</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>5</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>9</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>9</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Q,9</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>0</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>9</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>7,3,9</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>3</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>9,4,J</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>6</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>7</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>7,J</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>6</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Q,6</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>1</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>6,5,J</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>5</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>4</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>7</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2,1,4</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>5</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>K,5,J</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>2</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>6</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>6</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>6,Q</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>0</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>6</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>5,9,2</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>K,10,Q</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>6</v>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>4,7,K</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>3</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>5,8,J</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>2</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>4</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>4,K,Q</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>7</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>1,J,6</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>3</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>4</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>8,6,J</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>6</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>6,10</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>2</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>J,K</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>9</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>9</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>4</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>7,7,J</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>5</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>1</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>K,10,Q</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>7</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>K,7</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>7</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>9</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Q,9</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>9</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>9</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>7</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>7,Q</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>2</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>9</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Q,9</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>6</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>10,6</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>3</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>8</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Q,8</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>8</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>0</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>7</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>10,7</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>6</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>1</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>2</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>9,2,1</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>4</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>5,6,3</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>2</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>9</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>9,Q</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>9</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>9</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1,4,4</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>7</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>10,7</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>2</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>4</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>K,4</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>9</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>10,1,8,Q</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>5</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>6</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>6,J</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>2</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>2,2,8</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>4</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>9</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>9,10</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>3</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>K,3</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>6</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2,8,J</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>9</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>J,K,9</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>9</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>4,6,10</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>5</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>10,K,5</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>5</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0805_191123" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0806_083829" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L419"/>
+  <dimension ref="A1:L772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20269,6 +20269,6910 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="inlineStr"/>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr"/>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr"/>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr"/>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr"/>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr"/>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr"/>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr"/>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr"/>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr"/>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr"/>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr"/>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr"/>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr"/>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr"/>
+      <c r="B445" t="inlineStr"/>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr"/>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr"/>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr"/>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr"/>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr"/>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr"/>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr"/>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr"/>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr"/>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr"/>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr"/>
+      <c r="B466" t="inlineStr"/>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr"/>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr"/>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr"/>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr"/>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr"/>
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr"/>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr"/>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr"/>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr"/>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr"/>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr"/>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr"/>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr"/>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr"/>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr"/>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr"/>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr"/>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr"/>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr"/>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr"/>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr"/>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr"/>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr"/>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr"/>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr"/>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr"/>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr"/>
+      <c r="H505" t="inlineStr"/>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr"/>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr"/>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr"/>
+      <c r="B507" t="inlineStr"/>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="inlineStr"/>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr"/>
+      <c r="H507" t="inlineStr"/>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr"/>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr"/>
+      <c r="B509" t="inlineStr"/>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr"/>
+      <c r="H509" t="inlineStr"/>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr"/>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr"/>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr"/>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr"/>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr"/>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr"/>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr"/>
+      <c r="H513" t="inlineStr"/>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr"/>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr"/>
+      <c r="H514" t="inlineStr"/>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr"/>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr"/>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr"/>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr"/>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr"/>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr"/>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr"/>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr"/>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr"/>
+      <c r="E521" t="inlineStr"/>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr"/>
+      <c r="H521" t="inlineStr"/>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr"/>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr"/>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr"/>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr"/>
+      <c r="H524" t="inlineStr"/>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr"/>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr"/>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr"/>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr"/>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="inlineStr"/>
+      <c r="E528" t="inlineStr"/>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr"/>
+      <c r="H528" t="inlineStr"/>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr"/>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr"/>
+      <c r="B530" t="inlineStr"/>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="inlineStr"/>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr"/>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr"/>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr"/>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr"/>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr"/>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="inlineStr"/>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr"/>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="inlineStr"/>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr"/>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr"/>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr"/>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr"/>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr"/>
+      <c r="B538" t="inlineStr"/>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr"/>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr"/>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr"/>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="inlineStr"/>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr"/>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr"/>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr"/>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr"/>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr"/>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr"/>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="inlineStr"/>
+      <c r="E543" t="inlineStr"/>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr"/>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr"/>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr"/>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr"/>
+      <c r="H545" t="inlineStr"/>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr"/>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="inlineStr"/>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr"/>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr"/>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr"/>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr"/>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr"/>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr"/>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="inlineStr"/>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr"/>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr"/>
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="inlineStr"/>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr"/>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr"/>
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr"/>
+      <c r="B555" t="inlineStr"/>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr"/>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="inlineStr"/>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr"/>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="inlineStr"/>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr"/>
+      <c r="B557" t="inlineStr"/>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr"/>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="inlineStr"/>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr"/>
+      <c r="B558" t="inlineStr"/>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr"/>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr"/>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr"/>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="inlineStr"/>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr"/>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr"/>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr"/>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr"/>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr"/>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr"/>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr"/>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="inlineStr"/>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr"/>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr"/>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr"/>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr"/>
+      <c r="H564" t="inlineStr"/>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr"/>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr"/>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr"/>
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr"/>
+      <c r="H566" t="inlineStr"/>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr"/>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr"/>
+      <c r="H567" t="inlineStr"/>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr"/>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr"/>
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr"/>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr"/>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr"/>
+      <c r="E569" t="inlineStr"/>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="inlineStr"/>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr"/>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr"/>
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="inlineStr"/>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr"/>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr"/>
+      <c r="E571" t="inlineStr"/>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="inlineStr"/>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr"/>
+      <c r="B572" t="inlineStr"/>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr"/>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr"/>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="inlineStr"/>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="inlineStr"/>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr"/>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="inlineStr"/>
+      <c r="E574" t="inlineStr"/>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="inlineStr"/>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr"/>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="inlineStr"/>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr"/>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr"/>
+      <c r="H576" t="inlineStr"/>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr"/>
+      <c r="H577" t="inlineStr"/>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr"/>
+      <c r="B578" t="inlineStr"/>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr"/>
+      <c r="E578" t="inlineStr"/>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr"/>
+      <c r="H578" t="inlineStr"/>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr"/>
+      <c r="B579" t="inlineStr"/>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr"/>
+      <c r="H579" t="inlineStr"/>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr"/>
+      <c r="B580" t="inlineStr"/>
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr"/>
+      <c r="E580" t="inlineStr"/>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr"/>
+      <c r="H580" t="inlineStr"/>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr"/>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="inlineStr"/>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr"/>
+      <c r="H581" t="inlineStr"/>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr"/>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr"/>
+      <c r="E582" t="inlineStr"/>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr"/>
+      <c r="H582" t="inlineStr"/>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr"/>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr"/>
+      <c r="E583" t="inlineStr"/>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr"/>
+      <c r="H583" t="inlineStr"/>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr"/>
+      <c r="B584" t="inlineStr"/>
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="inlineStr"/>
+      <c r="E584" t="inlineStr"/>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr"/>
+      <c r="H584" t="inlineStr"/>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr"/>
+      <c r="B585" t="inlineStr"/>
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr"/>
+      <c r="E585" t="inlineStr"/>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr"/>
+      <c r="H585" t="inlineStr"/>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr"/>
+      <c r="B586" t="inlineStr"/>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr"/>
+      <c r="H586" t="inlineStr"/>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr"/>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr"/>
+      <c r="E587" t="inlineStr"/>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr"/>
+      <c r="H587" t="inlineStr"/>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr"/>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr"/>
+      <c r="E588" t="inlineStr"/>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr"/>
+      <c r="H588" t="inlineStr"/>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr"/>
+      <c r="B589" t="inlineStr"/>
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr"/>
+      <c r="E589" t="inlineStr"/>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr"/>
+      <c r="H589" t="inlineStr"/>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr"/>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr"/>
+      <c r="E590" t="inlineStr"/>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="inlineStr"/>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr"/>
+      <c r="B591" t="inlineStr"/>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr"/>
+      <c r="E591" t="inlineStr"/>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr"/>
+      <c r="H591" t="inlineStr"/>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr"/>
+      <c r="B592" t="inlineStr"/>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr"/>
+      <c r="E592" t="inlineStr"/>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr"/>
+      <c r="H592" t="inlineStr"/>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr"/>
+      <c r="B593" t="inlineStr"/>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr"/>
+      <c r="E593" t="inlineStr"/>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr"/>
+      <c r="H593" t="inlineStr"/>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr"/>
+      <c r="B594" t="inlineStr"/>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr"/>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr"/>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr"/>
+      <c r="B595" t="inlineStr"/>
+      <c r="C595" t="inlineStr"/>
+      <c r="D595" t="inlineStr"/>
+      <c r="E595" t="inlineStr"/>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="inlineStr"/>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr"/>
+      <c r="B596" t="inlineStr"/>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr"/>
+      <c r="E596" t="inlineStr"/>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr"/>
+      <c r="H596" t="inlineStr"/>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr"/>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr"/>
+      <c r="E597" t="inlineStr"/>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="inlineStr"/>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr"/>
+      <c r="B598" t="inlineStr"/>
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr"/>
+      <c r="E598" t="inlineStr"/>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="inlineStr"/>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr"/>
+      <c r="B599" t="inlineStr"/>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr"/>
+      <c r="E599" t="inlineStr"/>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr"/>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr"/>
+      <c r="B600" t="inlineStr"/>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr"/>
+      <c r="E600" t="inlineStr"/>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr"/>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr"/>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr"/>
+      <c r="E601" t="inlineStr"/>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr"/>
+      <c r="H601" t="inlineStr"/>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr"/>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="inlineStr"/>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr"/>
+      <c r="H602" t="inlineStr"/>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr"/>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr"/>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr"/>
+      <c r="B605" t="inlineStr"/>
+      <c r="C605" t="inlineStr"/>
+      <c r="D605" t="inlineStr"/>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr"/>
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr"/>
+      <c r="B606" t="inlineStr"/>
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr"/>
+      <c r="E606" t="inlineStr"/>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr"/>
+      <c r="H606" t="inlineStr"/>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr"/>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr"/>
+      <c r="H607" t="inlineStr"/>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr"/>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr"/>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr"/>
+      <c r="H609" t="inlineStr"/>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr"/>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr"/>
+      <c r="E610" t="inlineStr"/>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr"/>
+      <c r="H610" t="inlineStr"/>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr"/>
+      <c r="B611" t="inlineStr"/>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr"/>
+      <c r="E611" t="inlineStr"/>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="inlineStr"/>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr"/>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr"/>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr"/>
+      <c r="B613" t="inlineStr"/>
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr"/>
+      <c r="E613" t="inlineStr"/>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr"/>
+      <c r="H613" t="inlineStr"/>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr"/>
+      <c r="B614" t="inlineStr"/>
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="inlineStr"/>
+      <c r="E614" t="inlineStr"/>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr"/>
+      <c r="H614" t="inlineStr"/>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr"/>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr"/>
+      <c r="E615" t="inlineStr"/>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr"/>
+      <c r="H615" t="inlineStr"/>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr"/>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr"/>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr"/>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr"/>
+      <c r="B617" t="inlineStr"/>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr"/>
+      <c r="E617" t="inlineStr"/>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr"/>
+      <c r="H617" t="inlineStr"/>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr"/>
+      <c r="B618" t="inlineStr"/>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr"/>
+      <c r="H618" t="inlineStr"/>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr"/>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr"/>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr"/>
+      <c r="H619" t="inlineStr"/>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr"/>
+      <c r="B620" t="inlineStr"/>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr"/>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr"/>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr"/>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr"/>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr"/>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr"/>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr"/>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr"/>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr"/>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr"/>
+      <c r="B625" t="inlineStr"/>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr"/>
+      <c r="H625" t="inlineStr"/>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr"/>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr"/>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr"/>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr"/>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr"/>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr"/>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr"/>
+      <c r="B629" t="inlineStr"/>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr"/>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr"/>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr"/>
+      <c r="H630" t="inlineStr"/>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr"/>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr"/>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr"/>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr"/>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr"/>
+      <c r="E633" t="inlineStr"/>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr"/>
+      <c r="H633" t="inlineStr"/>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr"/>
+      <c r="B634" t="inlineStr"/>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr"/>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr"/>
+      <c r="H634" t="inlineStr"/>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr"/>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr"/>
+      <c r="E635" t="inlineStr"/>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr"/>
+      <c r="H635" t="inlineStr"/>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr"/>
+      <c r="B636" t="inlineStr"/>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr"/>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr"/>
+      <c r="B637" t="inlineStr"/>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr"/>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr"/>
+      <c r="H637" t="inlineStr"/>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr"/>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr"/>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr"/>
+      <c r="B639" t="inlineStr"/>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr"/>
+      <c r="H639" t="inlineStr"/>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr"/>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr"/>
+      <c r="H640" t="inlineStr"/>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr"/>
+      <c r="B641" t="inlineStr"/>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr"/>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr"/>
+      <c r="H641" t="inlineStr"/>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr"/>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr"/>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr"/>
+      <c r="H642" t="inlineStr"/>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr"/>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr"/>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr"/>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr"/>
+      <c r="H644" t="inlineStr"/>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr"/>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr"/>
+      <c r="H645" t="inlineStr"/>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr"/>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr"/>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr"/>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr"/>
+      <c r="H647" t="inlineStr"/>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr"/>
+      <c r="B648" t="inlineStr"/>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr"/>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr"/>
+      <c r="B649" t="inlineStr"/>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr"/>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr"/>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr"/>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr"/>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr"/>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr"/>
+      <c r="H651" t="inlineStr"/>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr"/>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr"/>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr"/>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr"/>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr"/>
+      <c r="B654" t="inlineStr"/>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr"/>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr"/>
+      <c r="H654" t="inlineStr"/>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr"/>
+      <c r="B655" t="inlineStr"/>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr"/>
+      <c r="H655" t="inlineStr"/>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr"/>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr"/>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr"/>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr"/>
+      <c r="H657" t="inlineStr"/>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr"/>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr"/>
+      <c r="H658" t="inlineStr"/>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr"/>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr"/>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr"/>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr"/>
+      <c r="H660" t="inlineStr"/>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr"/>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr"/>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr"/>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr"/>
+      <c r="H662" t="inlineStr"/>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr"/>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr"/>
+      <c r="H663" t="inlineStr"/>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr"/>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr"/>
+      <c r="H664" t="inlineStr"/>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr"/>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr"/>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr"/>
+      <c r="B666" t="inlineStr"/>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr"/>
+      <c r="H666" t="inlineStr"/>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr"/>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr"/>
+      <c r="H667" t="inlineStr"/>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr"/>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr"/>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr"/>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr"/>
+      <c r="B670" t="inlineStr"/>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr"/>
+      <c r="H670" t="inlineStr"/>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr"/>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr"/>
+      <c r="H671" t="inlineStr"/>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr"/>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr"/>
+      <c r="H672" t="inlineStr"/>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr"/>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr"/>
+      <c r="H673" t="inlineStr"/>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr"/>
+      <c r="B674" t="inlineStr"/>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr"/>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr"/>
+      <c r="B675" t="inlineStr"/>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr"/>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr"/>
+      <c r="B676" t="inlineStr"/>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr"/>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr"/>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr"/>
+      <c r="B677" t="inlineStr"/>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr"/>
+      <c r="H677" t="inlineStr"/>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr"/>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr"/>
+      <c r="H678" t="inlineStr"/>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr"/>
+      <c r="B679" t="inlineStr"/>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr"/>
+      <c r="H679" t="inlineStr"/>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr"/>
+      <c r="B680" t="inlineStr"/>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr"/>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr"/>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr"/>
+      <c r="B681" t="inlineStr"/>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr"/>
+      <c r="H681" t="inlineStr"/>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr"/>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr"/>
+      <c r="H682" t="inlineStr"/>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr"/>
+      <c r="B683" t="inlineStr"/>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr"/>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr"/>
+      <c r="H683" t="inlineStr"/>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr"/>
+      <c r="B684" t="inlineStr"/>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr"/>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr"/>
+      <c r="H684" t="inlineStr"/>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr"/>
+      <c r="B685" t="inlineStr"/>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr"/>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr"/>
+      <c r="H685" t="inlineStr"/>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr"/>
+      <c r="B686" t="inlineStr"/>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr"/>
+      <c r="H686" t="inlineStr"/>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr"/>
+      <c r="B687" t="inlineStr"/>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr"/>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr"/>
+      <c r="H687" t="inlineStr"/>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr"/>
+      <c r="B688" t="inlineStr"/>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr"/>
+      <c r="E688" t="inlineStr"/>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr"/>
+      <c r="H688" t="inlineStr"/>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr"/>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr"/>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr"/>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr"/>
+      <c r="H690" t="inlineStr"/>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr"/>
+      <c r="B691" t="inlineStr"/>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr"/>
+      <c r="H691" t="inlineStr"/>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr"/>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr"/>
+      <c r="H692" t="inlineStr"/>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr"/>
+      <c r="B693" t="inlineStr"/>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr"/>
+      <c r="H693" t="inlineStr"/>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr"/>
+      <c r="B694" t="inlineStr"/>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr"/>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr"/>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr"/>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr"/>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr"/>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr"/>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr"/>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr"/>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr"/>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr"/>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr"/>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr"/>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr"/>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr"/>
+      <c r="B701" t="inlineStr"/>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr"/>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr"/>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr"/>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr"/>
+      <c r="B703" t="inlineStr"/>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr"/>
+      <c r="E703" t="inlineStr"/>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr"/>
+      <c r="H703" t="inlineStr"/>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr"/>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr"/>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr"/>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr"/>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr"/>
+      <c r="B707" t="inlineStr"/>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr"/>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr"/>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr"/>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr"/>
+      <c r="B710" t="inlineStr"/>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr"/>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr"/>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr"/>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr"/>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr"/>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr"/>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="inlineStr"/>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr"/>
+      <c r="B715" t="inlineStr"/>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr"/>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr"/>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr"/>
+      <c r="B718" t="inlineStr"/>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr"/>
+      <c r="B719" t="inlineStr"/>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr"/>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr"/>
+      <c r="H720" t="inlineStr"/>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr"/>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr"/>
+      <c r="B722" t="inlineStr"/>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr"/>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr"/>
+      <c r="H722" t="inlineStr"/>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr"/>
+      <c r="B723" t="inlineStr"/>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr"/>
+      <c r="H724" t="inlineStr"/>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="inlineStr"/>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr"/>
+      <c r="H725" t="inlineStr"/>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr"/>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr"/>
+      <c r="B727" t="inlineStr"/>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr"/>
+      <c r="B728" t="inlineStr"/>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr"/>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr"/>
+      <c r="B730" t="inlineStr"/>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr"/>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr"/>
+      <c r="B733" t="inlineStr"/>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr"/>
+      <c r="H733" t="inlineStr"/>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr"/>
+      <c r="B734" t="inlineStr"/>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr"/>
+      <c r="B735" t="inlineStr"/>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr"/>
+      <c r="H735" t="inlineStr"/>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr"/>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr"/>
+      <c r="H736" t="inlineStr"/>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr"/>
+      <c r="B737" t="inlineStr"/>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr"/>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr"/>
+      <c r="B738" t="inlineStr"/>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr"/>
+      <c r="H738" t="inlineStr"/>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr"/>
+      <c r="B739" t="inlineStr"/>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr"/>
+      <c r="H739" t="inlineStr"/>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr"/>
+      <c r="B740" t="inlineStr"/>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr"/>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr"/>
+      <c r="H740" t="inlineStr"/>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr"/>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr"/>
+      <c r="H741" t="inlineStr"/>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr"/>
+      <c r="B742" t="inlineStr"/>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr"/>
+      <c r="H742" t="inlineStr"/>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr"/>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr"/>
+      <c r="H743" t="inlineStr"/>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr"/>
+      <c r="B744" t="inlineStr"/>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr"/>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr"/>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr"/>
+      <c r="B745" t="inlineStr"/>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr"/>
+      <c r="E745" t="inlineStr"/>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr"/>
+      <c r="H745" t="inlineStr"/>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr"/>
+      <c r="B746" t="inlineStr"/>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr"/>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr"/>
+      <c r="H746" t="inlineStr"/>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr"/>
+      <c r="B747" t="inlineStr"/>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr"/>
+      <c r="H747" t="inlineStr"/>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr"/>
+      <c r="B748" t="inlineStr"/>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr"/>
+      <c r="E748" t="inlineStr"/>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr"/>
+      <c r="H748" t="inlineStr"/>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr"/>
+      <c r="B749" t="inlineStr"/>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr"/>
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr"/>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr"/>
+      <c r="B750" t="inlineStr"/>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr"/>
+      <c r="E750" t="inlineStr"/>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr"/>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr"/>
+      <c r="B751" t="inlineStr"/>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr"/>
+      <c r="E751" t="inlineStr"/>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr"/>
+      <c r="H751" t="inlineStr"/>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr"/>
+      <c r="B752" t="inlineStr"/>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr"/>
+      <c r="H752" t="inlineStr"/>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr"/>
+      <c r="B753" t="inlineStr"/>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr"/>
+      <c r="E753" t="inlineStr"/>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr"/>
+      <c r="H753" t="inlineStr"/>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr"/>
+      <c r="B754" t="inlineStr"/>
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="inlineStr"/>
+      <c r="E754" t="inlineStr"/>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr"/>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr"/>
+      <c r="B755" t="inlineStr"/>
+      <c r="C755" t="inlineStr"/>
+      <c r="D755" t="inlineStr"/>
+      <c r="E755" t="inlineStr"/>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr"/>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr"/>
+      <c r="B756" t="inlineStr"/>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr"/>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr"/>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr"/>
+      <c r="B757" t="inlineStr"/>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr"/>
+      <c r="E757" t="inlineStr"/>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr"/>
+      <c r="H757" t="inlineStr"/>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>7</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2,1,7,7</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr"/>
+      <c r="E758" t="inlineStr"/>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>4</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>6,8,J</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>7</v>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>7,J</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>3</v>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J759" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>5</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>8</v>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>8,10</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>3</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>5</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>J,K,5</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>5</v>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>10,Q,5</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>0</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>J,J,Q</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>5</v>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>5,J</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>5</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>9</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>7,5,7</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>9</v>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Q,Q,9</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>0</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>5</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>3,2,Q</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>4</v>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>4,K</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>1</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>6</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>J,2,4</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0</v>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>K,4,6</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>6</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>6</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>4,7,5</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>3</v>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>10,1,2</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>3</v>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>1,3,7</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>3</v>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>2,9,2</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>2</v>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J767" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>9</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0</v>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>9</v>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J768" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>6</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>8</v>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>2</v>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J769" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>5</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>K,5</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>8</v>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>K,8</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>3</v>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J770" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>6</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>6,10</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>6</v>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>10,Q,6</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>0</v>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J771" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>2</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2,9,1</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>8</v>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>5,7,6</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
+        <v>6</v>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J772" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0806_083829" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0806_190603" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L772"/>
+  <dimension ref="A1:L819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27173,6 +27173,2590 @@
         </is>
       </c>
     </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>5,6,9</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>7</v>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Q,K,7</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>7</v>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr"/>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>8</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>K,4,4</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>7</v>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>10,7</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>1</v>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr"/>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>8</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>4</v>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>4</v>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>6</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>6,K</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>3</v>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>6,6,1</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>3</v>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>3</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>J,2,1</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>5</v>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>J,5</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>2</v>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>9</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>2</v>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>7</v>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>9</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>7</v>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="E779" t="n">
+        <v>2</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>9</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>9</v>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="E780" t="n">
+        <v>0</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>9</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>9,Q</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>3</v>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="E781" t="n">
+        <v>6</v>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>6</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>7,4,5</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>0</v>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>8,5,7</t>
+        </is>
+      </c>
+      <c r="E782" t="n">
+        <v>6</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>3</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>K,K,3</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>2</v>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>J,J,2</t>
+        </is>
+      </c>
+      <c r="E783" t="n">
+        <v>1</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>6</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>8</v>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="E784" t="n">
+        <v>2</v>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>9</v>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>8</v>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>9</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>J,9</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>0</v>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>J,Q</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>9</v>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>6</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>J,4,2</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>1</v>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>3,9,9</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>5</v>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>7</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>7</v>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>1,1,5</t>
+        </is>
+      </c>
+      <c r="E788" t="n">
+        <v>0</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>8</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>0</v>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>8</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>7</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>5</v>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>K,4,1</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>2</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>6</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>6,10</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>9</v>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Q,K,9</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>3</v>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Q,10</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>8</v>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>10,8</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>8</v>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>9</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Q,9</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>9</v>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>K,9</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>0</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>3</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Q,4,9</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>4</v>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>10,4</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>1</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>4</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>7,4,3</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>5</v>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>J,4,1</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>1</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>9</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>8</v>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Q,8</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>1</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>6</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>K,6</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>0</v>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>10,10,K</t>
+        </is>
+      </c>
+      <c r="E797" t="n">
+        <v>6</v>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J797" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>8</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>1,9,8</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>6</v>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>2</v>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J798" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>8</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>7</v>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>1</v>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J799" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>1</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Q,Q,1</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>4</v>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>3</v>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G800" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J800" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>4</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>1,9,4</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>4</v>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>9,6,9</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>0</v>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J801" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>8</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>J,8</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>1</v>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>K,1</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>7</v>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J802" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>7</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>7,10</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>2</v>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>2,10,10</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>5</v>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J803" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>3</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Q,5,8</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>7</v>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>4</v>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J804" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>5</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2,3,J</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>0</v>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>J,Q</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>5</v>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J805" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>8</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>3</v>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>K,3</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>5</v>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J806" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>8</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>2</v>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>2,Q</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>6</v>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J807" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>9</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>4,1,4</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>3</v>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Q,3,10</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>6</v>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>8</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>8,J</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>7</v>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>K,7</t>
+        </is>
+      </c>
+      <c r="E809" t="n">
+        <v>1</v>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>J,Q</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>9</v>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>9,J</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>9</v>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>7</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>7,8,2</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>4</v>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>4,7,3</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>3</v>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J811" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>3</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>5,J,8</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>4</v>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>4,K</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>1</v>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>3</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>10,1,2</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>5</v>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>J,5</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>2</v>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>4</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Q,4</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>9</v>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>9,J</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>5</v>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>9</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>5,K,4</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>3</v>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>J,1,2</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>6</v>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J815" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>1</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>8</v>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="E816" t="n">
+        <v>7</v>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J816" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>9</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>9</v>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="E817" t="n">
+        <v>0</v>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>8</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>3,J,5</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>2</v>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>8,4,K</t>
+        </is>
+      </c>
+      <c r="E818" t="n">
+        <v>6</v>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J818" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>7</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>6</v>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>8,6,2</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>1</v>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J819" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0806_190603" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0807_191502" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L819"/>
+  <dimension ref="A1:L839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29757,6 +29757,1078 @@
         </is>
       </c>
     </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>9</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>3</v>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>6</v>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J820" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>3</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Q,3,Q</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>5</v>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>5,J</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>2</v>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J821" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>7</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>9</v>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>5,10,4</t>
+        </is>
+      </c>
+      <c r="E822" t="n">
+        <v>2</v>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J822" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>0</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>5,9,6</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>7</v>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>9,8</t>
+        </is>
+      </c>
+      <c r="E823" t="n">
+        <v>7</v>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr"/>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>10,Q</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>8</v>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>8,10</t>
+        </is>
+      </c>
+      <c r="E824" t="n">
+        <v>8</v>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>4</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>9</v>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>9,K</t>
+        </is>
+      </c>
+      <c r="E825" t="n">
+        <v>5</v>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>9</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>0</v>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="E826" t="n">
+        <v>9</v>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>3</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>K,10,3</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>2</v>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>9,2,1</t>
+        </is>
+      </c>
+      <c r="E827" t="n">
+        <v>1</v>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J827" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>5</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>2,J,3</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>5</v>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>5,Q</t>
+        </is>
+      </c>
+      <c r="E828" t="n">
+        <v>0</v>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J828" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>6</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>6,Q</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>5</v>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>5,7,3</t>
+        </is>
+      </c>
+      <c r="E829" t="n">
+        <v>1</v>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J829" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>1</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>3,1,7</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>0</v>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>6,K,4</t>
+        </is>
+      </c>
+      <c r="E830" t="n">
+        <v>1</v>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J830" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>4</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>3,Q,1</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>2</v>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>K,2,10</t>
+        </is>
+      </c>
+      <c r="E831" t="n">
+        <v>2</v>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J831" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>8</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>J,2,6</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>2</v>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>5,10,7</t>
+        </is>
+      </c>
+      <c r="E832" t="n">
+        <v>6</v>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J832" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>6</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>6,K</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>8</v>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>8,10</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>2</v>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J833" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>6</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>9,7</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>3</v>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>7,6,10</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>3</v>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J834" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>9</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>7</v>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>10,7</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>2</v>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J835" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>8</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>0</v>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>10,Q</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>8</v>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J836" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>J,K,Q</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>5</v>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Q,5</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>5</v>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G837" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J837" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>5</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Q,Q,5</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>7</v>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>2</v>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G838" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J838" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>4</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>6,8,K</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>0</v>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>J,K,Q</t>
+        </is>
+      </c>
+      <c r="E839" t="n">
+        <v>4</v>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J839" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0807_191502" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0808_002655" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L839"/>
+  <dimension ref="A1:L868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30829,6 +30829,1630 @@
         </is>
       </c>
     </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>6</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>8</v>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>K,3,5</t>
+        </is>
+      </c>
+      <c r="E840" t="n">
+        <v>2</v>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J840" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>4</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>8,4,2</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>6</v>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>2,1,3</t>
+        </is>
+      </c>
+      <c r="E841" t="n">
+        <v>2</v>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J841" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>6,4,Q</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>4</v>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
+        <v>4</v>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J842" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>3</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Q,3</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>9</v>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="E843" t="n">
+        <v>6</v>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J843" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>10,Q,K</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>2</v>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>1,Q,1</t>
+        </is>
+      </c>
+      <c r="E844" t="n">
+        <v>2</v>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J844" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>3</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>J,3,J</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>2</v>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>8,4,Q</t>
+        </is>
+      </c>
+      <c r="E845" t="n">
+        <v>1</v>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J845" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>6</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>8</v>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>8,3,7</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>2</v>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J846" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>8</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>8,Q</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>1</v>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>Q,1</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>7</v>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J847" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>5</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>K,J,5</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>3</v>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>10,Q,3</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>2</v>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J848" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>7</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>7</v>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="E849" t="n">
+        <v>0</v>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J849" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>5</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>5,10,J</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>7</v>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>10,10,7</t>
+        </is>
+      </c>
+      <c r="E850" t="n">
+        <v>2</v>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J850" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>6</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>6</v>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>10,Q,6</t>
+        </is>
+      </c>
+      <c r="E851" t="n">
+        <v>0</v>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J851" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>5</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>9</v>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>4</v>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J852" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>5</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>5,Q,K</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>6</v>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>J,6</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>1</v>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J853" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>5,3,2</t>
+        </is>
+      </c>
+      <c r="C854" t="n">
+        <v>4</v>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>K,K,4</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>4</v>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J854" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>4</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>4,Q,J</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>5</v>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>9,6</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>1</v>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J855" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>3</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>6,9,8</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>6</v>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>6,Q</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>3</v>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J856" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>9</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>1,4,4</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>7</v>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>7,Q</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>2</v>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J857" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>7</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>10,7,J</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>0</v>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>7,3,K</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>7</v>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J858" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>4</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>J,2,2</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>6</v>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>9,3,4</t>
+        </is>
+      </c>
+      <c r="E859" t="n">
+        <v>2</v>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J859" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>9</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>2</v>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>J,2</t>
+        </is>
+      </c>
+      <c r="E860" t="n">
+        <v>7</v>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J860" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>9</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>9</v>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>0</v>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J861" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>5</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>9,6,Q</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>3</v>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>5,7,1</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>2</v>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J862" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>9</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>2</v>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>Q,2</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>7</v>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J863" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>7</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>7,Q</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>1</v>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>3,10,8</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>6</v>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J864" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>6</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>6,Q</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>5</v>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>3,2,K</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>1</v>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J865" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>7</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>5,J,2</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>2</v>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>8,4,Q</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>5</v>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J866" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>K,J</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>8</v>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>8,K</t>
+        </is>
+      </c>
+      <c r="E867" t="n">
+        <v>8</v>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>1</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>9</v>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="E868" t="n">
+        <v>8</v>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0808_002655" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0808_172450" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L868"/>
+  <dimension ref="A1:L874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32453,6 +32453,342 @@
         </is>
       </c>
     </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>8</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>7</v>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>7,K</t>
+        </is>
+      </c>
+      <c r="E869" t="n">
+        <v>1</v>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>9</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>2</v>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>7</v>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J870" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>6</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>6,K</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>1</v>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>5,9,7</t>
+        </is>
+      </c>
+      <c r="E871" t="n">
+        <v>5</v>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J871" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>2</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>9,3</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>9</v>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>9,K</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>7</v>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J872" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>6</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>1</v>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>K,4,7</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>5</v>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>6</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>3,2,1</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>9</v>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>3,J,6</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>3</v>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J874" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0808_172450" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0809_191852" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L874"/>
+  <dimension ref="A1:L899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32789,6 +32789,1406 @@
         </is>
       </c>
     </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>8</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>3</v>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>3,J</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>5</v>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>1</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>8</v>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>10,8</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>7</v>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>3</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>7,6,J</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>9</v>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>Q,1,8</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>6</v>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>5</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>K,5,J</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>0</v>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>10,K,K</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>5</v>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>2</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>2,J,10</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>6</v>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="E879" t="n">
+        <v>4</v>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>6</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>3</v>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>8,2,3</t>
+        </is>
+      </c>
+      <c r="E880" t="n">
+        <v>3</v>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>9</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>9</v>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="E881" t="n">
+        <v>0</v>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>4</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>3,2,9</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>8</v>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>6,4,8</t>
+        </is>
+      </c>
+      <c r="E882" t="n">
+        <v>4</v>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>1</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>K,1</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>8</v>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>9,9</t>
+        </is>
+      </c>
+      <c r="E883" t="n">
+        <v>7</v>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J883" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>8</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>8,J</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>8</v>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>10,8</t>
+        </is>
+      </c>
+      <c r="E884" t="n">
+        <v>0</v>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J884" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>2</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>9,3,Q</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>0</v>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>10,K,Q</t>
+        </is>
+      </c>
+      <c r="E885" t="n">
+        <v>2</v>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J885" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>4</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>10,4</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>8</v>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="E886" t="n">
+        <v>4</v>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J886" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>3,7,J</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>0</v>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>7,3,J</t>
+        </is>
+      </c>
+      <c r="E887" t="n">
+        <v>0</v>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J887" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>3</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>4,9,K</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>1</v>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>5,8,8</t>
+        </is>
+      </c>
+      <c r="E888" t="n">
+        <v>2</v>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J888" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>1</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>1,K,K</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>0</v>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>K,K,K</t>
+        </is>
+      </c>
+      <c r="E889" t="n">
+        <v>1</v>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J889" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>9</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>5</v>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>K,5</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>4</v>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J890" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>2</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>K,Q,2</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>5</v>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E891" t="n">
+        <v>3</v>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J891" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>6</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>J,6</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>5</v>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>7,7,1</t>
+        </is>
+      </c>
+      <c r="E892" t="n">
+        <v>1</v>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J892" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L892" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>2</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>K,Q,2</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>5</v>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>3,J,2</t>
+        </is>
+      </c>
+      <c r="E893" t="n">
+        <v>3</v>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J893" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L893" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>7</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>10,J,7</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>2</v>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>7,5,J</t>
+        </is>
+      </c>
+      <c r="E894" t="n">
+        <v>5</v>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J894" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>1,9,K</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>9</v>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>Q,J,9</t>
+        </is>
+      </c>
+      <c r="E895" t="n">
+        <v>9</v>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J895" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L895" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>3</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>8,7,8</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>5</v>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="E896" t="n">
+        <v>2</v>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J896" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>1</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Q,1,K</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>4</v>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>3</v>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J897" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>8</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>8,K</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>1</v>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>7</v>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J898" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>5</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>5,J</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>9</v>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>9,Q</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>4</v>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J899" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L899" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0809_191852" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0810_013525" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L899"/>
+  <dimension ref="A1:L917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34189,6 +34189,1014 @@
         </is>
       </c>
     </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>3</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>J,Q,3</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>1</v>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Q,2,9</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>2</v>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J900" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>2</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>9,5,8</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>4</v>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="E901" t="n">
+        <v>2</v>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J901" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>K,10,Q</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>6</v>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>1,Q,5</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>6</v>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J902" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>4</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>9</v>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>9,Q</t>
+        </is>
+      </c>
+      <c r="E903" t="n">
+        <v>5</v>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J903" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>9</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>4</v>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>10,4</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>5</v>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J904" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>3</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>10,4,9</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>8</v>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>K,J,8</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>5</v>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J905" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>4</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>4,K</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>8</v>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>8,Q</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>4</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J906" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>7</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>7,K</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>9</v>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>J,9</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>2</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J907" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>8</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>0</v>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>K,10</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>8</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>8</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>4,6,8</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>4</v>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>Q,10,4</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>4</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>0</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>J,Q,K</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>1</v>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>K,3,8</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>1</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>1</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>8,7,6</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>3</v>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>1,2,Q</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>2</v>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J911" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>5</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>9,6</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>9</v>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>9,10</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>4</v>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J912" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>7</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>5</v>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>7,6,2</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>2</v>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J913" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>1</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>5,6,K</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>2</v>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>J,2,Q</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>1</v>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J914" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>0</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>3,K,7</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>9</v>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>5,5,9</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>9</v>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J915" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>2</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>9</v>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Q,9</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>7</v>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J916" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>5</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>J,5</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>8</v>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>3</v>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J917" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ai_train_history.xlsx
+++ b/ai_train_history.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="牌局記錄0810_013525" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="牌局記錄0817_235253" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L917"/>
+  <dimension ref="A1:L963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35197,6 +35197,2582 @@
         </is>
       </c>
     </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>9</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>K,9</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>0</v>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>10,Q</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>9</v>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J918" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>8</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Q,8</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>1</v>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>9,2</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>7</v>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J919" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>1</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>7,3,1</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>5</v>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>5,10</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>4</v>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J920" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>9</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>5</v>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Q,5</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>4</v>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J921" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>8</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>J,8</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>0</v>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>J,Q</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>8</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>9</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>10,J,9</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>7</v>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>J,7</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>2</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>8</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>8</v>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Q,8</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>0</v>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>2</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2,9,1</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>6</v>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>J,1,5</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>4</v>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J925" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>0</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>J,1,9</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>3</v>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>8,5,Q</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>3</v>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J926" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>3</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>10,Q,3</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>8</v>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>3,8,7</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>5</v>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>6</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>6,J</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>1</v>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>2,3,6</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>5</v>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J928" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>5</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>5,J</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>8</v>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>8,J</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>3</v>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J929" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>9</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>9,Q</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>8</v>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>1</v>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>2</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>2,K,10</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>6</v>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>6,K</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>4</v>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J931" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>0</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>10,J</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>8</v>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>8</v>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J932" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>9</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>8,5,6</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>5</v>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>K,5,Q</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>4</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J933" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L933" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>0</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>5,8,7</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>6</v>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>4,2,K</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>6</v>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J934" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>8</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>10,8</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>5</v>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>9,6</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>3</v>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J935" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>9</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>9,K</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>0</v>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>Q,Q</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
+        <v>9</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J936" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>1</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>4,7,J</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>7</v>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>6</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J937" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>4</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>K,5,9</t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>0</v>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>J,Q,10</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
+        <v>4</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J938" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>6</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>K,6</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>9</v>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>9,K</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>3</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J939" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>7</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>9,4,4</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>1</v>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>Q,10,1</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>6</v>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J940" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>8</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Q,1,7</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>3</v>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Q,Q,3</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>5</v>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J941" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>4</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>K,5,9</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>6</v>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>2</v>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J942" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>7</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>J,7</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>8</v>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>9,2,7</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>1</v>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J943" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>1</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>4,J,7</t>
+        </is>
+      </c>
+      <c r="C944" t="n">
+        <v>7</v>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>10,7</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>6</v>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J944" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>8</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>6,8,4</t>
+        </is>
+      </c>
+      <c r="C945" t="n">
+        <v>2</v>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>9,6,7</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>6</v>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J945" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>6</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>6,J</t>
+        </is>
+      </c>
+      <c r="C946" t="n">
+        <v>9</v>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>6,4,9</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>3</v>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J946" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>7</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>K,1,6</t>
+        </is>
+      </c>
+      <c r="C947" t="n">
+        <v>7</v>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>0</v>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J947" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>5</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>5,K,K</t>
+        </is>
+      </c>
+      <c r="C948" t="n">
+        <v>5</v>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>5,K</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>0</v>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J948" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>8</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="C949" t="n">
+        <v>5</v>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>3</v>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J949" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>8</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>K,8</t>
+        </is>
+      </c>
+      <c r="C950" t="n">
+        <v>9</v>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>1</v>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J950" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>4</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="C951" t="n">
+        <v>9</v>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>K,9</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>5</v>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J951" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>9</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>3,2,4</t>
+        </is>
+      </c>
+      <c r="C952" t="n">
+        <v>4</v>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>9,3,2</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>5</v>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J952" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>5</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>7,8,K</t>
+        </is>
+      </c>
+      <c r="C953" t="n">
+        <v>9</v>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>1,2,6</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>4</v>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J953" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>0</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>10,Q</t>
+        </is>
+      </c>
+      <c r="C954" t="n">
+        <v>9</v>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>9</v>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J954" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>1</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>J,1,Q</t>
+        </is>
+      </c>
+      <c r="C955" t="n">
+        <v>1</v>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>6,7,8</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>0</v>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J955" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>8</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>8,J</t>
+        </is>
+      </c>
+      <c r="C956" t="n">
+        <v>9</v>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>1</v>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J956" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>1</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>1,1,9</t>
+        </is>
+      </c>
+      <c r="C957" t="n">
+        <v>8</v>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>5,8,5</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>7</v>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>莊</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J957" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>6</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Q,6</t>
+        </is>
+      </c>
+      <c r="C958" t="n">
+        <v>6</v>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>K,4,2</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>0</v>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J958" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>2</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>6,6,J</t>
+        </is>
+      </c>
+      <c r="C959" t="n">
+        <v>1</v>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>10,1,10</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>1</v>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J959" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>8</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>10,8</t>
+        </is>
+      </c>
+      <c r="C960" t="n">
+        <v>6</v>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>Q,6</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>2</v>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J960" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>9</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Q,4,5</t>
+        </is>
+      </c>
+      <c r="C961" t="n">
+        <v>7</v>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>2</v>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="J961" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>6</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="C962" t="n">
+        <v>1</v>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>9,5,7</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>5</v>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J962" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>6</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>2</v>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>1,2,9</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>4</v>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="J963" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
